--- a/Documentation/CBSE Timelog.xlsx
+++ b/Documentation/CBSE Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -34,6 +34,18 @@
   </si>
   <si>
     <t>Emil</t>
+  </si>
+  <si>
+    <t>Task 1.</t>
+  </si>
+  <si>
+    <t>Andreas, Emil, Joakim</t>
+  </si>
+  <si>
+    <t>Task 2.</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -412,7 +424,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +432,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -439,7 +451,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>40923</v>
+        <v>42019</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -452,22 +464,42 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="A3" s="3">
+        <v>42018</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>

--- a/Documentation/CBSE Timelog.xlsx
+++ b/Documentation/CBSE Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Task 1 restart</t>
+  </si>
+  <si>
+    <t>Andreas, Emil</t>
   </si>
 </sst>
 </file>
@@ -424,7 +430,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,10 +508,18 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="A6" s="3">
+        <v>42027</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/Documentation/CBSE Timelog.xlsx
+++ b/Documentation/CBSE Timelog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -45,13 +45,10 @@
     <t>Task 2.</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Task 1 restart</t>
-  </si>
-  <si>
-    <t>Andreas, Emil</t>
+    <t>Task 1 restart.</t>
+  </si>
+  <si>
+    <t>Documentation.</t>
   </si>
 </sst>
 </file>
@@ -430,7 +427,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +495,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
         <v>0.5</v>
@@ -512,20 +509,26 @@
         <v>42027</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>1.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
